--- a/data/trans_camb/P14B34-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P14B34-Dificultad-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>1.364703710738632</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8838810278613425</v>
+        <v>0.8838810278613427</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6882995438453815</v>
+        <v>0.6870182259215624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8084263112327298</v>
+        <v>0.7671468523427608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3191325748619018</v>
+        <v>0.3327721416593099</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.231244067694888</v>
+        <v>2.31408290510801</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.168327175317058</v>
+        <v>2.187279181140346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.862107523432199</v>
+        <v>1.941281856133948</v>
       </c>
     </row>
     <row r="7">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.17748416715415</v>
+        <v>1.095404536454414</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3577697078837463</v>
+        <v>0.377588830937065</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6817271176415454</v>
+        <v>0.7015258572478796</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.070753630692371</v>
+        <v>2.96212402574012</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.411198271429444</v>
+        <v>1.526939277448405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.78375920391855</v>
+        <v>1.884122118706803</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>0.8159911008373589</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.920745535408982</v>
+        <v>0.9207455354089819</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.137606409388046</v>
+        <v>1.051051421950933</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.377187856838035</v>
+        <v>0.3974729616678522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5231098643442077</v>
+        <v>0.5417288623876204</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.947521290548977</v>
+        <v>2.877189219223898</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.608494454820224</v>
+        <v>1.628100753473143</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.497220080197271</v>
+        <v>1.50611682094999</v>
       </c>
     </row>
     <row r="19">
@@ -890,7 +890,7 @@
         <v>1.425551204835648</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.143768589624812</v>
+        <v>1.143768589624813</v>
       </c>
     </row>
     <row r="23">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8253595165291311</v>
+        <v>0.8309349046813624</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.621992295678104</v>
+        <v>0.6184510189441671</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6536354159269088</v>
+        <v>0.6455314002636691</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.166044444649504</v>
+        <v>3.429353190312011</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.018169705202436</v>
+        <v>2.888319434347487</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.926583103812153</v>
+        <v>1.976744136696948</v>
       </c>
     </row>
     <row r="25">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.27032939505481</v>
+        <v>1.269809428037907</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.783025658452817</v>
+        <v>0.7643585443921352</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7945615970925983</v>
+        <v>0.7547578876989229</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.155900859723047</v>
+        <v>2.208075397187982</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.517752342519444</v>
+        <v>1.480237488888279</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.391955292815285</v>
+        <v>1.382505049221483</v>
       </c>
     </row>
     <row r="31">
